--- a/src/nodes.xlsx
+++ b/src/nodes.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="420" windowWidth="28515" windowHeight="12285"/>
   </bookViews>
   <sheets>
     <sheet name="create-fields" sheetId="8" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>type</t>
   </si>
@@ -83,15 +83,6 @@
   </si>
   <si>
     <t>relation</t>
-  </si>
-  <si>
-    <t>deal</t>
-  </si>
-  <si>
-    <t>deal_contacts</t>
-  </si>
-  <si>
-    <t>deal_companys</t>
   </si>
 </sst>
 </file>
@@ -463,7 +454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:N10"/>
     </sheetView>
   </sheetViews>
@@ -719,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -745,34 +736,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
